--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144631.898551882</v>
+        <v>1142154.745882789</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>312.8205413258959</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>290.7231396541204</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>17.72360236908511</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.50612826256146</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>201.6622187863209</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145779</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.75769145492423</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>104.4484877422303</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>1.194812067118038</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>8.559242828906072</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>85.47654389282634</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.6485634213535</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>79.08854402217059</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>97.97552699114104</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035252</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>24.35281532440621</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146341</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>175.4382843544181</v>
       </c>
     </row>
     <row r="14">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.37259901119252</v>
+        <v>7.72950549304127</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060497</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444156</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.0250037474717</v>
       </c>
       <c r="U22" t="n">
-        <v>35.8864194913616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890311</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>36.4306205949047</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.5795121770519</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179651</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.56327578339621</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179031</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819385</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060296</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.019807611471748</v>
+        <v>13.3764255468644</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>108.3764982651492</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>220.4242417780345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060497</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.907945722349</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.945428781937</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="D2" t="n">
-        <v>764.6797301751867</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="E2" t="n">
-        <v>378.8914775769425</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>760.6112738680783</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>344.9065235923672</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.507785786471</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.507785786471</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2214.708848710446</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>683.0052786441908</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>514.0690957162839</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>363.9524563039481</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>216.039362721555</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>69.14941522364464</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4519,19 +4519,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744305</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.6537434744305</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4562,52 +4562,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4635,16 +4635,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836221</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836221</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836221</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836221</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836221</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0249360836221</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251695</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271522</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836221</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943749</v>
+        <v>2006.793820398078</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943749</v>
+        <v>1637.831303457666</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943749</v>
+        <v>1279.565604850916</v>
       </c>
       <c r="E8" t="n">
-        <v>922.5820433455049</v>
+        <v>893.7773522526713</v>
       </c>
       <c r="F8" t="n">
-        <v>511.5961385558973</v>
+        <v>482.7914474630638</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>67.71899730806024</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>67.71899730806024</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180641</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919561</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943749</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4951,13 +4951,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1918.648848261315</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1726.962964088141</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="U10" t="n">
-        <v>1840.954604762406</v>
+        <v>1505.196348657667</v>
       </c>
       <c r="V10" t="n">
-        <v>1586.270116556519</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.852946519558</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.863395621541</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.0708164780106</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>2119.812436400312</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1750.8499194599</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1392.58422085315</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>1006.795968254906</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>595.8100634652983</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>181.2346177949452</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469189</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386824</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455665</v>
+        <v>3826.58813245566</v>
       </c>
       <c r="T11" t="n">
-        <v>3826.588132455665</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="U11" t="n">
-        <v>3573.097416088273</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="V11" t="n">
-        <v>3242.034528744703</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="W11" t="n">
-        <v>2889.265873474588</v>
+        <v>3270.017366701325</v>
       </c>
       <c r="X11" t="n">
-        <v>2889.265873474588</v>
+        <v>2896.551608440245</v>
       </c>
       <c r="Y11" t="n">
-        <v>2499.126541498777</v>
+        <v>2506.412276464433</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469189</v>
+        <v>477.1621322376501</v>
       </c>
       <c r="L12" t="n">
-        <v>501.7988736520017</v>
+        <v>900.4499396649596</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.112647895891</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1955.072021259915</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2198.621366333046</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.2646055703348</v>
+        <v>247.4472491525987</v>
       </c>
       <c r="C13" t="n">
-        <v>667.6658022123493</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="D13" t="n">
-        <v>517.5491628000135</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="E13" t="n">
-        <v>369.6360692176204</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>222.74612171971</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>222.74612171971</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600399</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888914</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715848</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.00213308252</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.094986101151</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541439</v>
+        <v>1378.397311360489</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335553</v>
+        <v>1123.712823154602</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.902621298592</v>
+        <v>834.2956531176417</v>
       </c>
       <c r="X13" t="n">
-        <v>873.9130704005745</v>
+        <v>606.3061022196243</v>
       </c>
       <c r="Y13" t="n">
-        <v>873.9130704005745</v>
+        <v>429.0957139828384</v>
       </c>
     </row>
     <row r="14">
@@ -5285,16 +5285,16 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.60923933393</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
         <v>4514.497374127286</v>
@@ -5364,13 +5364,13 @@
         <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.700680385036</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1683.796643784372</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
-        <v>2230.673118784567</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220733</v>
+        <v>494.0589900220726</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1228070941663</v>
+        <v>325.1228070941656</v>
       </c>
       <c r="D16" t="n">
-        <v>175.0061676818304</v>
+        <v>325.1228070941656</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608048</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608048</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608048</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.66745682198</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
         <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958431</v>
+        <v>896.5000339958424</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523129</v>
+        <v>675.7074548523123</v>
       </c>
     </row>
     <row r="17">
@@ -5504,25 +5504,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5531,19 +5531,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,10 +5677,10 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2390.881471216013</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362704</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656165</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377096</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253737</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026069</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820182</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783221</v>
+        <v>1582.207807637404</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>983.3556038098238</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>814.4194208819169</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925224</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>516.3896878871881</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892777</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>202.3036411041576</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>150.8995423128888</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449244</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>855.1271669926549</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>705.0105275803191</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>557.0974339979259</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597615</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597615</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597615</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6941,16 +6941,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327634</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048565</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925207</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101276</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122173</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7166,7 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>803.2707707770314</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>634.3345878491245</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.2179484367888</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>336.3048548543957</v>
       </c>
       <c r="F40" t="n">
-        <v>265.0731740618517</v>
+        <v>189.4149073564855</v>
       </c>
       <c r="G40" t="n">
-        <v>97.87707477673126</v>
+        <v>189.4149073564855</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.711814750801</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>984.9192356072712</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7415,22 +7415,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>916.309900062226</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835328</v>
+        <v>747.3737171343191</v>
       </c>
       <c r="D43" t="n">
-        <v>697.527634571197</v>
+        <v>747.3737171343191</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888039</v>
+        <v>599.4606235519261</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>452.5706760540159</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>285.3745767688958</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.635642676657</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.218472639697</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.228921741679</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.228921741679</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282751</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458821</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184736</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>-8.503883084314845e-16</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.0852782421271</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.4801726585067</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8940057742216</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>89.7150774703404</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.14636899767666</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>65.06136363537665</v>
+        <v>138.7044571535279</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610396</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.3804465798165165</v>
       </c>
       <c r="U22" t="n">
-        <v>250.2980548978825</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.0033420516645</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>10.8544504695173</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864991</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>73.85777223953504</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516659</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2749052347521</v>
+        <v>126.9182872993595</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>31.91821458107472</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>31.71340154579352</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>143.6212754172149</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610396</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>875190.0444586718</v>
+        <v>875190.0444586712</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.4141109419</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957546.4141109424</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.4141109423</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957546.4141109422</v>
+        <v>957546.414110942</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>957546.414110942</v>
+        <v>957546.4141109422</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719633</v>
@@ -26323,13 +26323,13 @@
         <v>423807.2415876635</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26338,22 +26338,22 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121063</v>
+        <v>203438.7416121061</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185162</v>
+        <v>143114.1392185155</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.347105137</v>
+        <v>166521.3471051378</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605457</v>
+        <v>49110.09270605454</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115335</v>
+        <v>37377.32855115322</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848887</v>
+        <v>43782.40655848906</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224802</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,16 +26418,16 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931201</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312012</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
-        <v>9848.023364462857</v>
+        <v>9848.023364462855</v>
       </c>
       <c r="F4" t="n">
-        <v>9940.611700543544</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214715</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873520.948751023</v>
+        <v>-873520.9487510235</v>
       </c>
       <c r="C6" t="n">
-        <v>71592.15640534344</v>
+        <v>71592.15640534372</v>
       </c>
       <c r="D6" t="n">
         <v>275030.89801745</v>
       </c>
       <c r="E6" t="n">
-        <v>184751.3568425372</v>
+        <v>184541.3925986933</v>
       </c>
       <c r="F6" t="n">
-        <v>184936.7813723489</v>
+        <v>184890.8763767823</v>
       </c>
       <c r="G6" t="n">
-        <v>341872.3844404983</v>
+        <v>341837.6465150626</v>
       </c>
       <c r="H6" t="n">
-        <v>353039.6206760776</v>
+        <v>353004.882750642</v>
       </c>
       <c r="I6" t="n">
-        <v>353039.6206760777</v>
+        <v>353004.882750642</v>
       </c>
       <c r="J6" t="n">
-        <v>185434.4428660952</v>
+        <v>185399.7049406594</v>
       </c>
       <c r="K6" t="n">
-        <v>303929.527970023</v>
+        <v>303894.7900445875</v>
       </c>
       <c r="L6" t="n">
-        <v>353039.6206760778</v>
+        <v>353004.8827506421</v>
       </c>
       <c r="M6" t="n">
-        <v>315662.2921249244</v>
+        <v>315627.5541994887</v>
       </c>
       <c r="N6" t="n">
-        <v>309257.2141175888</v>
+        <v>309222.4761921529</v>
       </c>
       <c r="O6" t="n">
-        <v>350016.322698853</v>
+        <v>349981.5847734173</v>
       </c>
       <c r="P6" t="n">
-        <v>353039.6206760776</v>
+        <v>353004.882750642</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593299</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.3883278086475</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012581</v>
+        <v>122.3935669012574</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218297</v>
       </c>
       <c r="G3" t="n">
         <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063555</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063552</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173577</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063555</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>94.05550441581551</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>10.29541290828496</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>148.5829976757191</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27591,19 +27591,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.6315150612666</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>168.0688818921482</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.4435131414756</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>21.59472895491386</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>306.4732379112231</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>40.38211770580791</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>80.37290984114125</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>200.7352943127866</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29022,7 +29022,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.032981521760424e-12</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.513437447175571e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.9060854350899</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307178</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726054</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.0032542216969</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857423</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898384</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294405</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615135</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895585</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.106494735698</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188517</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596475</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256413</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845331</v>
+        <v>660.6327957845327</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2170074201554</v>
+        <v>678.1177801147138</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>388.6056839122535</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>497.8817840205469</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697585</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691788</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509174</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263708</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973093</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050058</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761895</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570608</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.0939410292961</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826901</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,16 +32084,16 @@
         <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>459.3304791170305</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4971006716333</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,7 +34217,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420058</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040315</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.7799124276249</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517096</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584696</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932476</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077537</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.517153706244</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.928488915109</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457672</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625148</v>
+        <v>518.4987618625144</v>
       </c>
       <c r="N12" t="n">
-        <v>524.8752953368221</v>
+        <v>546.7760680313805</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>246.0094394678091</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>363.9073766062166</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701833</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112335</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190455</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.650907441083</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998352</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>325.3560717027003</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>57.65947400496659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
